--- a/Testdata/TC_55.xlsx
+++ b/Testdata/TC_55.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>yjMAAB+LCAAAAAAAAAPtWltvG8cV/isLPiWAqdklZd0y3oAiKYWtKMokFVspimC5OxS3Xu4ye5HEtxRokSJNURSFU6RX9ClFgbpGmwCp3ct/CSzZeepf6JmZvcxeKHFlBW0DG4a9c24zc2bmnO8MB795NrWkE+J6pmPfqSgrckUitu4Ypn18pxL446qyVnlTxe0znVgHmqtNiQ/CEmjZ3taZZ96pTHx/toXQ6enpyml9xXGPUU2WFXS/uzfQJ2SqVU3b8zVbJ5VYy7haq6LipjHtEl8zNF/jmncqnUFnpUlMvQW0rmZrx8Rd2Q480yae17Z90zeJRzVdovmk2eq+zSem1lbWVhSMcvREcjswLYPLpSQ5PZSDbsnQnBK1JisbVXmjWleGirylKFv1tZXV2sY7kWIsiPc0zx8Q98TUGWHga9MZU5c36ooiK0p9DaNCIbCVOEDFPcvokxPTI0aTWJZXyiMoXMCG7sOsyzlTxkjQDQ1dfwi7rjabDE3fIuWG0e9uS1M7HEtiRMU7jkt08N+1hrRPTntu6NbhbA+4w4np+vOWNi9t69Ajbm9GnVROVcUtx/YbFnH9wxmsNTFgKwBD9d2AYLSAmSi1TE+Hb9MOiKGONcsTlVJMfM9xH3gzTSf7cI4RtXFqW45mwIbzTc83dS8xkOPgA9eZgUnofduxjB0wGw6xgBGb7tjgY9rvtuM8yFpPMzFbVrbAsKhTzY/Ec3Q8mDinPduaD4KRp7vmiBit7Ui6kIfpiQy1m4HnO1MYRULCnCZQDAN1u2gOf+AcZpm4RXRzqlkHFvjSU+tgK0XAjcB3xqbfdKxgasdOzVDxPZjXkJzF84zbuAdrbFPXO3bHjuS5swtZaYW+cxr3mWcwVwjkhqdHWy3PyAq3gBYtYp7D1oXOcse0IE2IKyJQ03tjMCHEL9wYnINpRNyhiUfdntM+MUooGPYnbHKgqsrm5npVVuDvUJa32F/oOWbjtm2wD0gza1WlRkN3Ihcx8X4w7Y3gIJ+wOakK8DIkDLOwti3NfgDUe6Y/2W9Eoy/gYD7nhfJ5HoYjO7O0OSPHfhFpuGPrVmAQHgk69phtSjo2vowL2ThH2oOzrWLNng/nMwjInrnlw8edCqToLc93AQRUVN0JbN+d05CBUSh6lY4XjGzWgWYtrTN2yXsBYI/5TmDrTcdYvjeDe+fQNv3lR+gELo+Dy6sw79GIGHgtQmMLi/ZL6+tl5uS5pcSnNpk6tqkv721wMh29cY2JeNGpEjTQgr3VImMtsADd+JCEjpP8kiHjhvcgKyOS8KFrRcFBpdjRA/CoG9MVHdIrBUgrujOlBASY7d4AI1GeYgSdtO3jPc0+DiALxwcwS49DE00gQ1ezPTqdOOlmolSxEI4ONAcDKj/lvYB5jJ9yB7gYZeTwkExnjqtZXXCMuROuT4goIFl3NX8StiDsW0SPnIwS1VgrPbJo4FeJsfjNp0FPRhhPMkQmROfCYWoik9AwnWUX9q/V1Cxz5PLwE2W5Ih4sWAKfokBFJ1cSSkVrAKUKJKZvkznFr0kjpLMtq0QMvoFpxFEH/dWN2m25XoOkT9uYzbhPNEtqw673idSxT4jnT0FtS+oTzzTgy9SsLektMiImZAvmojBel9YW9fBOFBDZUBow3jQlLQCp+NiEeJsXjDmJgnpENNeaC4J8qnuODnIXP/rX+a8fP3vy6cWHD198/oN///2Xz/7x0/NHP4SPi7/89fyjX/BpcmE81EYWYQMabm9syPVV2GcxCVPnIoYdjUD3Ge3oiEHGuI3D0oc1mu1Oc3dvm8WTmBip89iLaFU1d4KkOeCTYB2xJUXRTuAi6jCKT2E7xRViuUqrnBOSlhb5ixS5L54//fT50z8t1A4dlsIstykWuRqzKEpOLsYstHrkxUFUm65W5dvVWk0QzsjgPpTYUAvEfuoYal2RN+VaXVbiWG7EG7lIKMsKLQ21Y5TR46QmxxHxFhDbEZNt/CEckZjNj4LQCLfo5z9+8eeHKanQuyElbQUGx/I97QxFDWZ6vz+UBr3DfrMtDdsDuk8SniDHjV8iHPYen6fUprLtQLNuScSm1ypSBYqFiuSMJaLpE2kOJ1E4h6nNVkTlHV3TZHaUu64TzPiKCAoJtUAyjiaFGgWxhvGYP3NBJ2EViPOxnv/tsyKFcCKtBPnFNwQiDac4nCTww1P7yT+fffHBsydPLh7/7PyL76cshP3EhTPsczhNYjPe9hDywnyToeB7A+bMB/K7Qn4JibTiOHBM2/dUZY0VG2ELg6pCrbH/cWcKKY8ZZv4CeoaC39K89pkfHmx1H6M0AcY50yDbOklZFhN4DE/8+tVvfnvxq88uPn784oM/nn/4h/OPPn7+9HcvHv2en7qLh48vfvIojPLZRMDGQos9DgIldoGgS/Q0SjR3S1++/3PJdnwJIIcUsIj05fufCMboQBk4SSwDpIsHkh5CTlRUpnqSMJR4DCm9WIUDgCZNYfVYIkxizszUk07eqVJT9NwxxmudYTXwiOQAmnodZpIWTpSX1QtVeEo9WJdrSi3k8tHQKYw0T3D9ruWMAGREDFabZ0RSWpcrJLKsv9293nZjLxHhg+i5BpTyMr1goB84gpQ0pXS8qBVtNYECXAB+emDR65ScWJ4VWxbCGArvJcYNg4Y/VZZZ4Z/OjykJ3AxclwMiO7ztHgQzAMPRHdZiPrvYE/DvPseqIiJO2p1Wmg9tgQuJMM2mBMZnoSlk8TDV8egVCIez+9Q1SRN4qctAcEd4oc2R1gngShfRuNN2XcctDD4JJxLrApKGiIISj8cybE056jaStYoIUcD7r6Nv6TutzqCxu9tv7zaG7dfuBgCkCGScN6Su5uqTW9K3ApvckiDu+WQ6Iu4tCdIm+3oDrM0sU4c+Xv/uy4H4GxvEJbXA3WVrgZxgUS0QD/G65cCN+v1VVXEjVYVcf1VVfLOriviYJVUAHDfhsLFjVilfW7yU4cUVxt3SFUahxqUVRlEo+yYWGcriIkN511BuK4pe36hCLh1XV8ejtermOiFVeVUfrdc2tZq2ullUf6ytfq31R7RwBb9LLBzD8mnvmnvgsp1ZsKw3HWRv5J7w8lh7RQy8unpFlyzcq5ryVU150zWlkq8p+Y8fmZ9EICYZagQ8DyAeUWAhZLibwKT0hyohZyYPoPiI4nZYwIzd96LS5W3NCiCyHDb6w3Z/D4AJJzDkqjZ7+4NhYx9SffjjWcZYkW1IxQdwAB0j3QNdxzKmkTgHDmuztZdAjZcgCYsN1/QnYMDUezPCf73xIH7m5GJVWuMmSlKRFiuDszcKYRxyuAK5blWJeCmDUsEWZVJLth2FPJGOhJoICQUKKipHUKr+QC9da6CFNcJiTjTSJCsV3pMUJK1CuUWVQaHw1ZVBFs4zyvJgH6UyG8qD+YSEFuJ0lAPjqBgYLyDnVOLtX0gs2lUxMikkRh0IYBFxYILyGBPdzD01EvGY/FKQcHl4gAQCyqfrNAml8ivK5lKRgITEhwrSXIaG0nkKhVEJ/T/fb4Z9/y9fcKLrXGmim7u5FJJMyxyPjwBH3k+eXkUEPuLECm3w/JpDJkiALsLeCN9n3exmuSGgU2T51S172Vv25avvr+UCHiUPZxIA1SIW4L2yz5kj7a5zcm1d2BZlVTtezzJCP5d7+xO7JTEgvjmne+hln5zzfdhwXYAl9HFq6Tfi0cuxvmYflxwNnwpTpE+woPcINZiu59+n6Tf84pSjmHLEIdt9tcZx2X3ePlJX1zkBBJBoHaWGGZ1qn7/8d6w9c2qWfJclR0c/bQR8OZtxBNYpt1NoHb5PznyMBAuQrUffA2DAny6WscY3LJQesT59ZeuZxxO/7MDWRxoxyEiu6iNSq64a8kZ1k5B6VVHgX02v1WT5Nn2jGxqHoGKS05KdoGjBhGLuPydh6tDKMwAA</t>
+          <t>3zQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSWAqdldUrSojDegSEphK4oyScVWXoLl7lDaernL7EUS31KgRYo0RVEUTpFe0acUBeoabQKkdi//JbBk96l/IWdm9jK7XEpaWQFSw4WBcs5tZs6cOec7ow1++3RqS8fE8y3XubOirMorEnEM17ScwzsrYTCpKPWVtzXcOTWIvad7+pQEICyBluNvnPrWnZWjIJhtIHRycrJ6Ul11vUOkyrKC7vd2hsYRmeoVy/ED3THISqJlXq61ouGWOe2RQDf1QOead1a6w+5qi1hGG2g93dEPibe6GfqWQ3y/4wRWYBGfanpED0ir3XuXb0xTV+urCkYL9FRyM7Rsk8tlJDk9koNpyciaEk2VVbkir1fU2khubKjVjZq8Kq/L78WKiSDe0f1gSLxjy2CEYaBPZ0xdXldrckOt1mSMCoXAVuoADfdtc0COLZ+YLWLbfimPoOgAm0YAuy7nTFieoBsZuv4Stj19djSyApuUVd9yPWKAo6419y456XuR/0azHeCOjiwvmLf1eWlb+z7x+jPqjXKqGm67TtC0iRfsz+BQiQlnDgwt8EKC0RJmqtS2fAN+W05ITG2i276olGHie673wJ/pBtmFC4uojRPHdnUTIiuw/MAy/NTAAgfvee4MTMLsm65tboHZaIkFjMR01wEf03k3XfdB3nqWiVkQsHCAQ53qQSy+QMfDI/ek79jzYTj2Dc8aE7O9GUsX8jC9epF2K/QDdwqrSEmY0wRKr4fm8D+4bXkObhPDmur2ng2O9LUqGMoQcDMM3IkVtFw7nDqJR3NUfA82NSKnySaTMe7DATvU767TdWJ57ulCVlZh4J4kcy4ymB8EctM34jhbZOSF20CLT3CRww6F7nLLsqEYiMchULOBMTwiJCiMCs7BNO9t0fKibc7pnBilFAzBCREOVMiccr0C/1R5JMsb7B/MnLBxxzFTOUWtVBVBLmbi3XDaH8MtPmZ70hTg5UgYdmFv2rrzAKj3rOBotxmvvoCD+Z6Xyi/yMNzXma3PGTnxi0jDXcewQ5PwNNB1Jiwo6dr4MS5l4wXSDlxsDevOfDSfQdr1rY0AftxZgUK84QcelPoVzXBDJ/DmNF9gFIlepuOHY4dNoNtX1pl45IMQEMZ8K3SMlmtefTaTe2ffsYKrr9ANPZ4Er67CvEfTYei3CU0sLNVfWd8osyffKyU+dcjUdSzj6t4GJ9PVm9fYiB/fKkEDLYmtNpnooQ0YJoAKdJgWlxwZN/0HeRmRhPc9O04OGkWIPkBEw5yuGlBbKQxaNdwpJSBAZveGGInyFCAYpOMc7ujOYQglOLmAeXqSmmj1GHm649PtJBU3l6WKhXB8oTkS0Pgt74fMY/yWu8DFKCeHR2Q6cz3d7oFjrK3ofCI4AZW6pwdH0QjSvk2M2MkoVU20siuLF36ZGMvffBv0ZkT5JEdkQnQvHIymMikN0132IH7tlm5bY4+nn7jKFfHgwFLsFCcqurmSOCo+A2hIoDB9n8wpSk0HEZ2FrBIzeADTjKMNB7V1dU2uqlD06RizHQ+IbksdiPqASF3nmPjBFNQ2pAHxLRN+Wbq9Ib1DxsSCasFcFOXr0tqiHt6KEyJbShPWm6VkBaAUH1qQbxcFE06qoB0Q3bPngiDf6o5rgNz5T/5z9tvHz558fv7xwxdf/uh///z1s3/9/OzRj+HH+d/+fvbJr/g2uTAe6WObsAWNNtfX5WoN4iwhYepcxICjGRoBox0cMLyYjHHU4LBBq9Ntbe9ssnySEGN1nnsR7Z3mbpgOh3wTbCJ2pCiOBC6ijeL8FI0zXCGXa7SXOSZZaZG/TJH74vnTz58//ctS7chhKShRGo01ikVk5TLMoigLcglmoT0i7wyiDlSpVeS1iqoKwjkZPIBGGhqBxE9dU6sqckNWq7KS5HIzCeQioTwrsjTSD1FOj5NaHEckISCOYyYL/BFckYTNr4IwiEL0y5+++OvDjFTk3YiStQKLY/WeTobiATO9OxhJw/7+oNWRRp0hjZOUJ8hx4xcIR7Mn9ykTVI4T6vYtiTj08URagWZhRXInEtGNI2kON1G4h5lgK6Lyia5pMr/Kbc8NZ/xEBIWUWiCZZJNCjYJcw3jMnwtJJ2UViPO1nv3jiyKFaCPtFPlpg96mNHWSuGQ0nOFwksCPbu1n/3721UfPnjw5f/yLs69+mLEQzZN0zRDncJvEYRL2kPKiepOj4HtD5swH8vtCfYmItOPYcy0n8DWlzpqNaIRBVaHW2P/j7hRKHjPM/AX0HAW/o/ud0yC62NouRlkCrHOmQ7V107YsIfAcnvr1v7/7/flvvjj/9PGLj/589vGfzj759PnTP7x49Ed+684fPj7/2aMoy+cLAVsLbfY4CJTY64Eh0dso0dotff3hLyXHDSSAHFLIMtLXH34mGKMLZeAktQyQLllIdgkLoqIy1ZOEpSRryOglKhwAtGgJqyYSURFzZ5aRTvJehZqi944x3uiOKqFPJBfQ1Juwk6xwqnxVvUiFl9S927KqqBGXr4ZuYaz7guu3bXcMICNmsN48J5LRulghlWXzbe/0N5s7qQhfRN8zoZWX6QMD/YG7fgwq4/ASKMAFsGeENn1CWRBbZOH4l5C6UPQWMWmaNOVpsiwrFfZPKHMZCdwKPY+DICd6xx6GMwDA8aPVcj57yRMw7y7HpyIKTsfddpYPY4ELxS/LpgTGZ+koYvHU1PXpsweHsLvUNekQeJnXP3BH9FTN0dUxYEkP0VzT8TzXK0w4KScW6wF6hiyCUo8nMohOyZG2mZ5VTIiT3KuMuO9eFXEvCBYh7rshwDryGnR/N0C3XH0Nul9t0J3ctxQk93TvlvS90CG3JMA+tyQKmstD75cyvByA3y0NwAs1LgTgRTnoVcTgynIMrrxvrt+uq/WxUWnUFFKp6ZANGuPaWqVuNHSi1m9PzPpaETyv175VeB4fXMGz/dI1XL1eXTMGLorMgmO96SR7I0X94lx7SQ68vLlDFxzc65brdct10y2XkrRcMWT3+d8Gcn8xgJxkau3usLm9PejsQT6iwEKocDFruznqvJEkhbckqGXGkVDNAjIdE4/VNPbrLbhxM9syIIrepH/HEWpm+hUQX1EyjrD+xPsgRvnv6nYImWW/ORh1BjsATDiBIVet1d8djpq7UOqjvy3ljBXZhlK8BxfQNbMz0HMsYxqJe+CwNt+mCNTkCNK02PSs4AgMWEZ/RvgfN3zInwtyiSptB1MlqUiLdYz5hjvKQy5XINdtwBDvQVAm2aJcacmP45Qn0pHQzCChQUFF7QjK9B/opXsNtLRHWM6JV5pWpcInhYKiVSi3rDMoFL68M8jDeUa5OthHmcqGFsF8SkJLcTpaAOOoGBgvIS+oJOFfSCyKqgSZFBLjCQSwiDgwQYsYE93MMy4S8Zj8UpDw6vAACQS0WK6zJJSpryhfS0UCEgofKihzORrK1ikUZSX0//b8F839XX7/Q9d58UM397AnFJa2NZkcAHa8n36NFBP4ilMrdMBr6gIaQQJcEWIj+mTpZoPlhsBNkeXXj9BlH6Gv3nF/K+/TKP2WJAVNbWIDxiv7eW+s3XOPr60LYVFWtev3bTPyc7nPYRK3pAbEj61pDJVdTNPzAHTQLzNLfx29YzkPuuV2r1VJVVbXx8Zaw5hUFbMxJrVxfTJpkGq1LiuwN26U9gTUBH0SoN8WlZtEoSlLVE+/AxvozmFJa9zBTJF+KwWeYnc16oKTMd6yPD+4T3FB9ItTDhLKAceS9zWVA8b7fHygKVVOAAEkToYyq45TT8C/y3ftHWtqlfyeSo7zU9YIhMFsxqFh2QNttXu75DTASLAAMGL8A0As/JPDMtb4rYKeKNGPbQ3DcWlzKFbeAz4NrOtpd0xAnNfXZh+5W/ZLLIDhzOua6Dq+dXgUlD1XtdGokjpRK+rEMCo1GFQAJ44rpj5pKLI8qZprKv00OTIOhcMiJyUnoeXG8kPdLq+Hcv+ZkvYNyKdhZt80AAA=</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei [DISAGGREGATE(Quarterly; March, June, September, December; Replicate)]</t>
+          <t>Real Estate Investment: Residential: Hebei</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -583,343 +583,21 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>35490</v>
+        <v>38961</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
-        <v>3271.34</v>
+        <v>37962.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>35582</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>39052</v>
+      </c>
+      <c r="B14" s="6">
+        <v>37962.97</v>
+      </c>
       <c r="C14" s="6">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5">
-        <v>35674</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>35765</v>
-      </c>
-      <c r="B16" s="6">
-        <v>3271.34</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5">
-        <v>36220</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5">
-        <v>36312</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5">
-        <v>36404</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5">
-        <v>36495</v>
-      </c>
-      <c r="B20" s="6">
-        <v>6384.48</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5">
-        <v>36586</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5">
-        <v>36678</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5">
-        <v>36770</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5">
-        <v>36861</v>
-      </c>
-      <c r="B24" s="6">
-        <v>7111.74</v>
-      </c>
-      <c r="C24" s="6">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5">
-        <v>36951</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5">
-        <v>37043</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5">
-        <v>37135</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5">
-        <v>37226</v>
-      </c>
-      <c r="B28" s="6">
-        <v>8354.02</v>
-      </c>
-      <c r="C28" s="6">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5">
-        <v>37316</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5">
-        <v>37408</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5">
-        <v>37500</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5">
-        <v>37591</v>
-      </c>
-      <c r="B32" s="6">
-        <v>10540.67</v>
-      </c>
-      <c r="C32" s="6">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5">
-        <v>37681</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5">
-        <v>37773</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5">
-        <v>37865</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="5">
-        <v>37956</v>
-      </c>
-      <c r="B36" s="6">
-        <v>16421.36</v>
-      </c>
-      <c r="C36" s="6">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5">
-        <v>38047</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="5">
-        <v>38139</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="5">
-        <v>38231</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="5">
-        <v>38322</v>
-      </c>
-      <c r="B40" s="6">
-        <v>22352.63</v>
-      </c>
-      <c r="C40" s="6">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5">
-        <v>38412</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="5">
-        <v>38504</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5">
-        <v>38596</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5">
-        <v>38687</v>
-      </c>
-      <c r="B44" s="6">
-        <v>29205.22</v>
-      </c>
-      <c r="C44" s="6">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5">
-        <v>38777</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6">
-        <v>37962.97</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5">
-        <v>38869</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6">
-        <v>37962.97</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5">
-        <v>38961</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6">
-        <v>37962.97</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="5">
-        <v>39052</v>
-      </c>
-      <c r="B48" s="6">
-        <v>37962.97</v>
-      </c>
-      <c r="C48" s="6">
         <v>37962.97</v>
       </c>
     </row>
@@ -927,4 +605,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>14</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>14</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA73E46-C323-480E-9D68-1CFE636907A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_55.xlsx
+++ b/Testdata/TC_55.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3zQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSWAqdldUrSojDegSEphK4oyScVWXoLl7lDaernL7EUS31KgRYo0RVEUTpFe0acUBeoabQKkdi//JbBk96l/IWdm9jK7XEpaWQFSw4WBcs5tZs6cOec7ow1++3RqS8fE8y3XubOirMorEnEM17ScwzsrYTCpKPWVtzXcOTWIvad7+pQEICyBluNvnPrWnZWjIJhtIHRycrJ6Ul11vUOkyrKC7vd2hsYRmeoVy/ED3THISqJlXq61ouGWOe2RQDf1QOead1a6w+5qi1hGG2g93dEPibe6GfqWQ3y/4wRWYBGfanpED0ir3XuXb0xTV+urCkYL9FRyM7Rsk8tlJDk9koNpyciaEk2VVbkir1fU2khubKjVjZq8Kq/L78WKiSDe0f1gSLxjy2CEYaBPZ0xdXldrckOt1mSMCoXAVuoADfdtc0COLZ+YLWLbfimPoOgAm0YAuy7nTFieoBsZuv4Stj19djSyApuUVd9yPWKAo6419y456XuR/0azHeCOjiwvmLf1eWlb+z7x+jPqjXKqGm67TtC0iRfsz+BQiQlnDgwt8EKC0RJmqtS2fAN+W05ITG2i276olGHie673wJ/pBtmFC4uojRPHdnUTIiuw/MAy/NTAAgfvee4MTMLsm65tboHZaIkFjMR01wEf03k3XfdB3nqWiVkQsHCAQ53qQSy+QMfDI/ek79jzYTj2Dc8aE7O9GUsX8jC9epF2K/QDdwqrSEmY0wRKr4fm8D+4bXkObhPDmur2ng2O9LUqGMoQcDMM3IkVtFw7nDqJR3NUfA82NSKnySaTMe7DATvU767TdWJ57ulCVlZh4J4kcy4ymB8EctM34jhbZOSF20CLT3CRww6F7nLLsqEYiMchULOBMTwiJCiMCs7BNO9t0fKibc7pnBilFAzBCREOVMiccr0C/1R5JMsb7B/MnLBxxzFTOUWtVBVBLmbi3XDaH8MtPmZ70hTg5UgYdmFv2rrzAKj3rOBotxmvvoCD+Z6Xyi/yMNzXma3PGTnxi0jDXcewQ5PwNNB1Jiwo6dr4MS5l4wXSDlxsDevOfDSfQdr1rY0AftxZgUK84QcelPoVzXBDJ/DmNF9gFIlepuOHY4dNoNtX1pl45IMQEMZ8K3SMlmtefTaTe2ffsYKrr9ANPZ4Er67CvEfTYei3CU0sLNVfWd8osyffKyU+dcjUdSzj6t4GJ9PVm9fYiB/fKkEDLYmtNpnooQ0YJoAKdJgWlxwZN/0HeRmRhPc9O04OGkWIPkBEw5yuGlBbKQxaNdwpJSBAZveGGInyFCAYpOMc7ujOYQglOLmAeXqSmmj1GHm649PtJBU3l6WKhXB8oTkS0Pgt74fMY/yWu8DFKCeHR2Q6cz3d7oFjrK3ofCI4AZW6pwdH0QjSvk2M2MkoVU20siuLF36ZGMvffBv0ZkT5JEdkQnQvHIymMikN0132IH7tlm5bY4+nn7jKFfHgwFLsFCcqurmSOCo+A2hIoDB9n8wpSk0HEZ2FrBIzeADTjKMNB7V1dU2uqlD06RizHQ+IbksdiPqASF3nmPjBFNQ2pAHxLRN+Wbq9Ib1DxsSCasFcFOXr0tqiHt6KEyJbShPWm6VkBaAUH1qQbxcFE06qoB0Q3bPngiDf6o5rgNz5T/5z9tvHz558fv7xwxdf/uh///z1s3/9/OzRj+HH+d/+fvbJr/g2uTAe6WObsAWNNtfX5WoN4iwhYepcxICjGRoBox0cMLyYjHHU4LBBq9Ntbe9ssnySEGN1nnsR7Z3mbpgOh3wTbCJ2pCiOBC6ijeL8FI0zXCGXa7SXOSZZaZG/TJH74vnTz58//ctS7chhKShRGo01ikVk5TLMoigLcglmoT0i7wyiDlSpVeS1iqoKwjkZPIBGGhqBxE9dU6sqckNWq7KS5HIzCeQioTwrsjTSD1FOj5NaHEckISCOYyYL/BFckYTNr4IwiEL0y5+++OvDjFTk3YiStQKLY/WeTobiATO9OxhJw/7+oNWRRp0hjZOUJ8hx4xcIR7Mn9ykTVI4T6vYtiTj08URagWZhRXInEtGNI2kON1G4h5lgK6Lyia5pMr/Kbc8NZ/xEBIWUWiCZZJNCjYJcw3jMnwtJJ2UViPO1nv3jiyKFaCPtFPlpg96mNHWSuGQ0nOFwksCPbu1n/3721UfPnjw5f/yLs69+mLEQzZN0zRDncJvEYRL2kPKiepOj4HtD5swH8vtCfYmItOPYcy0n8DWlzpqNaIRBVaHW2P/j7hRKHjPM/AX0HAW/o/ud0yC62NouRlkCrHOmQ7V107YsIfAcnvr1v7/7/flvvjj/9PGLj/589vGfzj759PnTP7x49Ed+684fPj7/2aMoy+cLAVsLbfY4CJTY64Eh0dso0dotff3hLyXHDSSAHFLIMtLXH34mGKMLZeAktQyQLllIdgkLoqIy1ZOEpSRryOglKhwAtGgJqyYSURFzZ5aRTvJehZqi944x3uiOKqFPJBfQ1Juwk6xwqnxVvUiFl9S927KqqBGXr4ZuYaz7guu3bXcMICNmsN48J5LRulghlWXzbe/0N5s7qQhfRN8zoZWX6QMD/YG7fgwq4/ASKMAFsGeENn1CWRBbZOH4l5C6UPQWMWmaNOVpsiwrFfZPKHMZCdwKPY+DICd6xx6GMwDA8aPVcj57yRMw7y7HpyIKTsfddpYPY4ELxS/LpgTGZ+koYvHU1PXpsweHsLvUNekQeJnXP3BH9FTN0dUxYEkP0VzT8TzXK0w4KScW6wF6hiyCUo8nMohOyZG2mZ5VTIiT3KuMuO9eFXEvCBYh7rshwDryGnR/N0C3XH0Nul9t0J3ctxQk93TvlvS90CG3JMA+tyQKmstD75cyvByA3y0NwAs1LgTgRTnoVcTgynIMrrxvrt+uq/WxUWnUFFKp6ZANGuPaWqVuNHSi1m9PzPpaETyv175VeB4fXMGz/dI1XL1eXTMGLorMgmO96SR7I0X94lx7SQ68vLlDFxzc65brdct10y2XkrRcMWT3+d8Gcn8xgJxkau3usLm9PejsQT6iwEKocDFruznqvJEkhbckqGXGkVDNAjIdE4/VNPbrLbhxM9syIIrepH/HEWpm+hUQX1EyjrD+xPsgRvnv6nYImWW/ORh1BjsATDiBIVet1d8djpq7UOqjvy3ljBXZhlK8BxfQNbMz0HMsYxqJe+CwNt+mCNTkCNK02PSs4AgMWEZ/RvgfN3zInwtyiSptB1MlqUiLdYz5hjvKQy5XINdtwBDvQVAm2aJcacmP45Qn0pHQzCChQUFF7QjK9B/opXsNtLRHWM6JV5pWpcInhYKiVSi3rDMoFL68M8jDeUa5OthHmcqGFsF8SkJLcTpaAOOoGBgvIS+oJOFfSCyKqgSZFBLjCQSwiDgwQYsYE93MMy4S8Zj8UpDw6vAACQS0WK6zJJSpryhfS0UCEgofKihzORrK1ikUZSX0//b8F839XX7/Q9d58UM397AnFJa2NZkcAHa8n36NFBP4ilMrdMBr6gIaQQJcEWIj+mTpZoPlhsBNkeXXj9BlH6Gv3nF/K+/TKP2WJAVNbWIDxiv7eW+s3XOPr60LYVFWtev3bTPyc7nPYRK3pAbEj61pDJVdTNPzAHTQLzNLfx29YzkPuuV2r1VJVVbXx8Zaw5hUFbMxJrVxfTJpkGq1LiuwN26U9gTUBH0SoN8WlZtEoSlLVE+/AxvozmFJa9zBTJF+KwWeYnc16oKTMd6yPD+4T3FB9ItTDhLKAceS9zWVA8b7fHygKVVOAAEkToYyq45TT8C/y3ftHWtqlfyeSo7zU9YIhMFsxqFh2QNttXu75DTASLAAMGL8A0As/JPDMtb4rYKeKNGPbQ3DcWlzKFbeAz4NrOtpd0xAnNfXZh+5W/ZLLIDhzOua6Dq+dXgUlD1XtdGokjpRK+rEMCo1GFQAJ44rpj5pKLI8qZprKv00OTIOhcMiJyUnoeXG8kPdLq+Hcv+ZkvYNyKdhZt80AAA=</t>
+          <t>yjMAAB+LCAAAAAAAAAPtWltvG8cV/isLPiWAqdklZd0y3oAiKYWtKMokFVspimC5OxS3Xu4ye5HEtxRokSJNURSFU6RX9ClFgbpGmwCp3ct/CSzZeepf6JmZvcxeKHFlBW0DG4a9c24zc2bmnO8MB795NrWkE+J6pmPfqSgrckUitu4Ypn18pxL446qyVnlTxe0znVgHmqtNiQ/CEmjZ3taZZ96pTHx/toXQ6enpyml9xXGPUU2WFXS/uzfQJ2SqVU3b8zVbJ5VYy7haq6LipjHtEl8zNF/jmncqnUFnpUlMvQW0rmZrx8Rd2Q480yae17Z90zeJRzVdovmk2eq+zSem1lbWVhSMcvREcjswLYPLpSQ5PZSDbsnQnBK1JisbVXmjWleGirylKFv1tZXV2sY7kWIsiPc0zx8Q98TUGWHga9MZU5c36ooiK0p9DaNCIbCVOEDFPcvokxPTI0aTWJZXyiMoXMCG7sOsyzlTxkjQDQ1dfwi7rjabDE3fIuWG0e9uS1M7HEtiRMU7jkt08N+1hrRPTntu6NbhbA+4w4np+vOWNi9t69Ajbm9GnVROVcUtx/YbFnH9wxmsNTFgKwBD9d2AYLSAmSi1TE+Hb9MOiKGONcsTlVJMfM9xH3gzTSf7cI4RtXFqW45mwIbzTc83dS8xkOPgA9eZgUnofduxjB0wGw6xgBGb7tjgY9rvtuM8yFpPMzFbVrbAsKhTzY/Ec3Q8mDinPduaD4KRp7vmiBit7Ui6kIfpiQy1m4HnO1MYRULCnCZQDAN1u2gOf+AcZpm4RXRzqlkHFvjSU+tgK0XAjcB3xqbfdKxgasdOzVDxPZjXkJzF84zbuAdrbFPXO3bHjuS5swtZaYW+cxr3mWcwVwjkhqdHWy3PyAq3gBYtYp7D1oXOcse0IE2IKyJQ03tjMCHEL9wYnINpRNyhiUfdntM+MUooGPYnbHKgqsrm5npVVuDvUJa32F/oOWbjtm2wD0gza1WlRkN3Ihcx8X4w7Y3gIJ+wOakK8DIkDLOwti3NfgDUe6Y/2W9Eoy/gYD7nhfJ5HoYjO7O0OSPHfhFpuGPrVmAQHgk69phtSjo2vowL2ThH2oOzrWLNng/nMwjInrnlw8edCqToLc93AQRUVN0JbN+d05CBUSh6lY4XjGzWgWYtrTN2yXsBYI/5TmDrTcdYvjeDe+fQNv3lR+gELo+Dy6sw79GIGHgtQmMLi/ZL6+tl5uS5pcSnNpk6tqkv721wMh29cY2JeNGpEjTQgr3VImMtsADd+JCEjpP8kiHjhvcgKyOS8KFrRcFBpdjRA/CoG9MVHdIrBUgrujOlBASY7d4AI1GeYgSdtO3jPc0+DiALxwcwS49DE00gQ1ezPTqdOOlmolSxEI4ONAcDKj/lvYB5jJ9yB7gYZeTwkExnjqtZXXCMuROuT4goIFl3NX8StiDsW0SPnIwS1VgrPbJo4FeJsfjNp0FPRhhPMkQmROfCYWoik9AwnWUX9q/V1Cxz5PLwE2W5Ih4sWAKfokBFJ1cSSkVrAKUKJKZvkznFr0kjpLMtq0QMvoFpxFEH/dWN2m25XoOkT9uYzbhPNEtqw673idSxT4jnT0FtS+oTzzTgy9SsLektMiImZAvmojBel9YW9fBOFBDZUBow3jQlLQCp+NiEeJsXjDmJgnpENNeaC4J8qnuODnIXP/rX+a8fP3vy6cWHD198/oN///2Xz/7x0/NHP4SPi7/89fyjX/BpcmE81EYWYQMabm9syPVV2GcxCVPnIoYdjUD3Ge3oiEHGuI3D0oc1mu1Oc3dvm8WTmBip89iLaFU1d4KkOeCTYB2xJUXRTuAi6jCKT2E7xRViuUqrnBOSlhb5ixS5L54//fT50z8t1A4dlsIstykWuRqzKEpOLsYstHrkxUFUm65W5dvVWk0QzsjgPpTYUAvEfuoYal2RN+VaXVbiWG7EG7lIKMsKLQ21Y5TR46QmxxHxFhDbEZNt/CEckZjNj4LQCLfo5z9+8eeHKanQuyElbQUGx/I97QxFDWZ6vz+UBr3DfrMtDdsDuk8SniDHjV8iHPYen6fUprLtQLNuScSm1ypSBYqFiuSMJaLpE2kOJ1E4h6nNVkTlHV3TZHaUu64TzPiKCAoJtUAyjiaFGgWxhvGYP3NBJ2EViPOxnv/tsyKFcCKtBPnFNwQiDac4nCTww1P7yT+fffHBsydPLh7/7PyL76cshP3EhTPsczhNYjPe9hDywnyToeB7A+bMB/K7Qn4JibTiOHBM2/dUZY0VG2ELg6pCrbH/cWcKKY8ZZv4CeoaC39K89pkfHmx1H6M0AcY50yDbOklZFhN4DE/8+tVvfnvxq88uPn784oM/nn/4h/OPPn7+9HcvHv2en7qLh48vfvIojPLZRMDGQos9DgIldoGgS/Q0SjR3S1++/3PJdnwJIIcUsIj05fufCMboQBk4SSwDpIsHkh5CTlRUpnqSMJR4DCm9WIUDgCZNYfVYIkxizszUk07eqVJT9NwxxmudYTXwiOQAmnodZpIWTpSX1QtVeEo9WJdrSi3k8tHQKYw0T3D9ruWMAGREDFabZ0RSWpcrJLKsv9293nZjLxHhg+i5BpTyMr1goB84gpQ0pXS8qBVtNYECXAB+emDR65ScWJ4VWxbCGArvJcYNg4Y/VZZZ4Z/OjykJ3AxclwMiO7ztHgQzAMPRHdZiPrvYE/DvPseqIiJO2p1Wmg9tgQuJMM2mBMZnoSlk8TDV8egVCIez+9Q1SRN4qctAcEd4oc2R1gngShfRuNN2XcctDD4JJxLrApKGiIISj8cybE056jaStYoIUcD7r6Nv6TutzqCxu9tv7zaG7dfuBgCkCGScN6Su5uqTW9K3ApvckiDu+WQ6Iu4tCdIm+3oDrM0sU4c+Xv/uy4H4GxvEJbXA3WVrgZxgUS0QD/G65cCN+v1VVXEjVYVcf1VVfLOriviYJVUAHDfhsLFjVilfW7yU4cUVxt3SFUahxqUVRlEo+yYWGcriIkN511BuK4pe36hCLh1XV8ejtermOiFVeVUfrdc2tZq2ullUf6ytfq31R7RwBb9LLBzD8mnvmnvgsp1ZsKw3HWRv5J7w8lh7RQy8unpFlyzcq5ryVU150zWlkq8p+Y8fmZ9EICYZagQ8DyAeUWAhZLibwKT0hyohZyYPoPiI4nZYwIzd96LS5W3NCiCyHDb6w3Z/D4AJJzDkqjZ7+4NhYx9SffjjWcZYkW1IxQdwAB0j3QNdxzKmkTgHDmuztZdAjZcgCYsN1/QnYMDUezPCf73xIH7m5GJVWuMmSlKRFiuDszcKYRxyuAK5blWJeCmDUsEWZVJLth2FPJGOhJoICQUKKipHUKr+QC9da6CFNcJiTjTSJCsV3pMUJK1CuUWVQaHw1ZVBFs4zyvJgH6UyG8qD+YSEFuJ0lAPjqBgYLyDnVOLtX0gs2lUxMikkRh0IYBFxYILyGBPdzD01EvGY/FKQcHl4gAQCyqfrNAml8ivK5lKRgITEhwrSXIaG0nkKhVEJ/T/fb4Z9/y9fcKLrXGmim7u5FJJMyxyPjwBH3k+eXkUEPuLECm3w/JpDJkiALsLeCN9n3exmuSGgU2T51S172Vv25avvr+UCHiUPZxIA1SIW4L2yz5kj7a5zcm1d2BZlVTtezzJCP5d7+xO7JTEgvjmne+hln5zzfdhwXYAl9HFq6Tfi0cuxvmYflxwNnwpTpE+woPcINZiu59+n6Tf84pSjmHLEIdt9tcZx2X3ePlJX1zkBBJBoHaWGGZ1qn7/8d6w9c2qWfJclR0c/bQR8OZtxBNYpt1NoHb5PznyMBAuQrUffA2DAny6WscY3LJQesT59ZeuZxxO/7MDWRxoxyEiu6iNSq64a8kZ1k5B6VVHgX02v1WT5Nn2jGxqHoGKS05KdoGjBhGLuPydh6tDKMwAA</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,7 +418,7 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Real Estate Investment: Residential: Hebei</t>
+          <t>Real Estate Investment: Residential: Hebei [DISAGGREGATE(Quarterly; March, June, September, December; Replicate)]</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -583,21 +583,343 @@
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>38961</v>
+        <v>35490</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
-        <v>37962.97</v>
+        <v>3271.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
+        <v>35582</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>35674</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>35765</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3271.34</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>36220</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>36312</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>36404</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>36495</v>
+      </c>
+      <c r="B20" s="6">
+        <v>6384.48</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>36586</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>36678</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>36770</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>36861</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7111.74</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>36951</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>37043</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>37135</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>37226</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8354.02</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>37316</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>37408</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>37500</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>37591</v>
+      </c>
+      <c r="B32" s="6">
+        <v>10540.67</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>37681</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>37773</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>37865</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>37956</v>
+      </c>
+      <c r="B36" s="6">
+        <v>16421.36</v>
+      </c>
+      <c r="C36" s="6">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>38047</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>38139</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>38231</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>38322</v>
+      </c>
+      <c r="B40" s="6">
+        <v>22352.63</v>
+      </c>
+      <c r="C40" s="6">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>38412</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>38504</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>38596</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>38687</v>
+      </c>
+      <c r="B44" s="6">
+        <v>29205.22</v>
+      </c>
+      <c r="C44" s="6">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>38777</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <v>37962.97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>38869</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6">
+        <v>37962.97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>38961</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6">
+        <v>37962.97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
         <v>39052</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B48" s="6">
         <v>37962.97</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C48" s="6">
         <v>37962.97</v>
       </c>
     </row>
@@ -605,48 +927,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>14</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>14</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA73E46-C323-480E-9D68-1CFE636907A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>